--- a/data/bioassay_4_nutrients.xlsx
+++ b/data/bioassay_4_nutrients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E473DA6F-ECFF-4ECA-9069-D117E9DFE0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B50813A-BD3B-4A78-B8AA-6877F3147E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6DF75026-9C87-4DBC-9A6C-4EFD92C7F9EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{6DF75026-9C87-4DBC-9A6C-4EFD92C7F9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>Catherine Schlenker</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{FB887D79-4DCD-4E62-8B83-081873894603}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{8DB01A99-0005-42F1-AA76-A4CF2C1D419B}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{1D5D8513-9729-449E-857A-6DB6140E382E}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0CCA4E36-2B25-49E2-BEDD-24FFB4D07A0C}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D37F335E-653E-447E-9BDD-002C289E1815}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B9C7B833-14B3-452E-A198-4CB86B6D43FD}">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{45460BAD-E67A-4AE2-ABC1-180E0BA02314}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{4902DE2D-D05A-4B10-91D6-B038CA3EB056}">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{888A3C16-B1CE-4D6E-A0E8-B2B14B2FD145}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3EB4C865-2EC1-49CB-AFE1-09437309BB68}">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{DE96107D-CF00-4907-AC99-5CE0E45C9BFC}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{E184E02C-645D-4E73-B7C7-C4E430BDABF7}">
       <text>
         <r>
           <rPr>
@@ -800,7 +800,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C1" sqref="C1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,19 +845,23 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>0.85653104925053536</v>
+      </c>
       <c r="D2" s="3">
-        <v>0.10649858726363834</v>
+        <v>0.34975017844396861</v>
       </c>
       <c r="E2" s="3">
-        <v>3.6993540810334702</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>4.4967880085653107</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
       <c r="G2" s="3">
-        <v>0.15645161290322582</v>
+        <v>1.2062812276945039</v>
       </c>
       <c r="H2" s="3">
-        <v>1.9180487943477353</v>
+        <v>5.7030692362598145</v>
       </c>
       <c r="I2" s="3" t="e">
         <v>#DIV/0!</v>
@@ -870,19 +874,23 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>1.2134189864382585</v>
+      </c>
       <c r="D3" s="3">
-        <v>9.7804825038035212E-2</v>
+        <v>0.32119914346895073</v>
       </c>
       <c r="E3" s="3">
-        <v>3.170874926600117</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>3.8543897216274092</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
       <c r="G3" s="3">
-        <v>0.14838709677419354</v>
+        <v>1.5346181299072092</v>
       </c>
       <c r="H3" s="3">
-        <v>4.3175004261928658</v>
+        <v>5.3890078515346183</v>
       </c>
       <c r="I3" s="3" t="e">
         <v>#DIV/0!</v>
@@ -895,19 +903,23 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>1.1420413990007139</v>
+      </c>
       <c r="D4" s="3">
-        <v>0.11301890893284069</v>
+        <v>0.37116345467523199</v>
       </c>
       <c r="E4" s="3">
-        <v>2.5249559600704634</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>3.0692362598144181</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
       <c r="G4" s="3">
-        <v>0.14677419354838711</v>
+        <v>1.5132048536759459</v>
       </c>
       <c r="H4" s="3">
-        <v>0.91013297217434119</v>
+        <v>4.582441113490364</v>
       </c>
       <c r="I4" s="3" t="e">
         <v>#DIV/0!</v>
@@ -920,19 +932,23 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>1.5703069236259812</v>
+      </c>
       <c r="D5" s="3">
-        <v>0.10215170615083678</v>
+        <v>0.33547466095645967</v>
       </c>
       <c r="E5" s="3">
-        <v>1.467997651203758</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>1.7844396859386153</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
       <c r="G5" s="3">
-        <v>0.15</v>
+        <v>1.9057815845824408</v>
       </c>
       <c r="H5" s="3">
-        <v>2.6162360540223135</v>
+        <v>3.6902212705210564</v>
       </c>
       <c r="I5" s="3" t="e">
         <v>#DIV/0!</v>
@@ -945,17 +961,23 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C6">
+        <v>1.9271948608137046</v>
+      </c>
       <c r="D6">
-        <v>9.563138448163444E-2</v>
+        <v>0.31406138472519635</v>
       </c>
       <c r="E6">
-        <v>6.9289489136817366</v>
+        <v>8.4225553176302643</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.23548387096774195</v>
+        <v>2.2412562455389011</v>
       </c>
       <c r="H6">
-        <v>0.52908340120849351</v>
+        <v>10.663811563169165</v>
       </c>
       <c r="I6" t="e">
         <v>#DIV/0!</v>
@@ -968,17 +990,23 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C7">
+        <v>1.85581727337616</v>
+      </c>
       <c r="D7">
-        <v>8.6937622256031299E-2</v>
+        <v>0.28551034975017847</v>
       </c>
       <c r="E7">
-        <v>8.1620669406928954</v>
+        <v>9.9214846538187018</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.27903225806451615</v>
+        <v>2.1413276231263385</v>
       </c>
       <c r="H7">
-        <v>1.8644697213645747</v>
+        <v>12.06281227694504</v>
       </c>
       <c r="I7" t="e">
         <v>#DIV/0!</v>
@@ -991,17 +1019,23 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>2.0699500356887941</v>
+      </c>
       <c r="D8">
-        <v>7.3896978917626602E-2</v>
+        <v>0.24268379728765166</v>
       </c>
       <c r="E8">
-        <v>5.8132706987668818</v>
+        <v>7.0663811563169165</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.18225806451612905</v>
+        <v>2.312633832976446</v>
       </c>
       <c r="H8">
-        <v>0.35841778266058</v>
+        <v>9.3790149892933634</v>
       </c>
       <c r="I8" t="e">
         <v>#DIV/0!</v>
@@ -1014,17 +1048,23 @@
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C9">
+        <v>1.5703069236259812</v>
+      </c>
       <c r="D9">
-        <v>9.9978265594435997E-2</v>
+        <v>0.32833690221270517</v>
       </c>
       <c r="E9">
-        <v>3.7580739870816209</v>
+        <v>4.5681655960028555</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.15</v>
+        <v>1.8986438258386864</v>
       </c>
       <c r="H9">
-        <v>1.8528772753963592</v>
+        <v>6.4668094218415417</v>
       </c>
       <c r="I9" t="e">
         <v>#DIV/0!</v>
@@ -1037,19 +1077,23 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <v>1.6416845110635259</v>
+      </c>
       <c r="D10" s="3">
-        <v>9.3457943925233655E-2</v>
+        <v>0.30692362598144185</v>
       </c>
       <c r="E10" s="3">
-        <v>2.0551967116852614</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>2.4982155603140614</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
       <c r="G10" s="3">
-        <v>1.8048387096774192</v>
+        <v>1.9486081370449677</v>
       </c>
       <c r="H10" s="3">
-        <v>4.7995539181330855</v>
+        <v>4.4468236973590294</v>
       </c>
       <c r="I10" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1062,19 +1106,23 @@
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <v>1.7844396859386153</v>
+      </c>
       <c r="D11" s="3">
-        <v>0.11736579004564227</v>
+        <v>0.38543897216274092</v>
       </c>
       <c r="E11" s="3">
-        <v>2.5249559600704634</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>3.0692362598144181</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
       <c r="G11" s="3">
-        <v>1.8580645161290323</v>
+        <v>2.1698786581013563</v>
       </c>
       <c r="H11" s="3">
-        <v>4.2068607580550452</v>
+        <v>5.2391149179157743</v>
       </c>
       <c r="I11" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1087,19 +1135,23 @@
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3">
+        <v>1.4275517487508922</v>
+      </c>
       <c r="D12" s="3">
-        <v>9.7804825038035212E-2</v>
+        <v>0.32119914346895073</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
       <c r="G12" s="3">
-        <v>1.7854838709677421</v>
+        <v>1.7487508922198429</v>
       </c>
       <c r="H12" s="3">
-        <v>1.7854838709677421</v>
+        <v>1.7487508922198429</v>
       </c>
       <c r="I12" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1112,19 +1164,23 @@
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3">
+        <v>1.7130620985010707</v>
+      </c>
       <c r="D13" s="3">
-        <v>9.563138448163444E-2</v>
+        <v>0.31406138472519635</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
       <c r="G13" s="3">
-        <v>1.9209677419354838</v>
+        <v>2.027123483226267</v>
       </c>
       <c r="H13" s="3">
-        <v>3.8000047354762945</v>
+        <v>2.027123483226267</v>
       </c>
       <c r="I13" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1137,20 +1193,26 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C14">
+        <v>1.7844396859386153</v>
+      </c>
       <c r="D14">
-        <v>9.3457943925233655E-2</v>
+        <v>0.30692362598144185</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14">
+        <v>1.4207297384565707</v>
+      </c>
       <c r="G14">
-        <v>0.1435483870967742</v>
+        <v>2.0913633119200572</v>
       </c>
       <c r="H14">
-        <v>0.1435483870967742</v>
+        <v>2.0913633119200572</v>
       </c>
       <c r="I14">
-        <v>0.16625354051927616</v>
+        <v>1.4720345856855495</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1160,20 +1222,26 @@
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C15">
+        <v>2.426837972876517</v>
+      </c>
       <c r="D15">
-        <v>7.6070419474027401E-2</v>
+        <v>0.24982155603140616</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15">
+        <v>1.4853083629318695</v>
+      </c>
       <c r="G15">
-        <v>0.25806451612903225</v>
+        <v>2.6766595289079231</v>
       </c>
       <c r="H15">
-        <v>4.3684579394995549</v>
+        <v>2.6766595289079231</v>
       </c>
       <c r="I15">
-        <v>5.8432739509052505</v>
+        <v>1.8020901219625736</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1183,20 +1251,26 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C16">
+        <v>1.2847965738758029</v>
+      </c>
       <c r="D16">
-        <v>8.9111062812432085E-2</v>
+        <v>0.29264810849393291</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
+      <c r="F16">
+        <v>1.1624152405553763</v>
+      </c>
       <c r="G16">
-        <v>0.27419354838709681</v>
+        <v>1.5774446823697359</v>
       </c>
       <c r="H16">
-        <v>1.800911105639005</v>
+        <v>1.5774446823697359</v>
       </c>
       <c r="I16">
-        <v>2.0857625329577596</v>
+        <v>1.3570406059164088</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1206,20 +1280,26 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C17">
+        <v>0.92790863668807999</v>
+      </c>
       <c r="D17">
-        <v>9.563138448163444E-2</v>
+        <v>0.31406138472519635</v>
       </c>
       <c r="E17">
-        <v>1.4092777451556076</v>
+        <v>1.7130620985010707</v>
+      </c>
+      <c r="F17">
+        <v>1.0655473038424281</v>
       </c>
       <c r="G17">
-        <v>0.25483870967741939</v>
+        <v>1.2419700214132763</v>
       </c>
       <c r="H17">
-        <v>0.25483870967741939</v>
+        <v>2.955032119914347</v>
       </c>
       <c r="I17">
-        <v>0.36122436206066444</v>
+        <v>2.7732528713256768</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1229,22 +1309,26 @@
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3">
+        <v>1.85581727337616</v>
+      </c>
       <c r="D18" s="3">
-        <v>0.11736579004564227</v>
+        <v>0.38543897216274092</v>
       </c>
       <c r="E18" s="3">
-        <v>3.7580739870816209</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>4.5681655960028555</v>
+      </c>
+      <c r="F18" s="3">
+        <v>13.109460768485633</v>
+      </c>
       <c r="G18" s="3">
-        <v>1.0016129032258065</v>
+        <v>2.2412562455389011</v>
       </c>
       <c r="H18" s="3">
-        <v>1.0016129032258065</v>
+        <v>6.8094218415417567</v>
       </c>
       <c r="I18" s="3">
-        <v>0.18761967932811605</v>
+        <v>0.51942806510479844</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1254,22 +1338,26 @@
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3">
+        <v>1.85581727337616</v>
+      </c>
       <c r="D19" s="3">
-        <v>0.10432514670723754</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="E19" s="3">
-        <v>2.1139166177334112</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>2.5695931477516059</v>
+      </c>
+      <c r="F19" s="3">
+        <v>13.819825637713917</v>
+      </c>
       <c r="G19" s="3">
-        <v>0.14032258064516129</v>
+        <v>2.198429693076374</v>
       </c>
       <c r="H19" s="3">
-        <v>0.14032258064516129</v>
+        <v>4.7680228408279799</v>
       </c>
       <c r="I19" s="3">
-        <v>2.8114842792976723E-2</v>
+        <v>0.34501324154309004</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1279,22 +1367,26 @@
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3">
+        <v>2.3554603854389722</v>
+      </c>
       <c r="D20" s="3">
-        <v>9.9978265594435997E-2</v>
+        <v>0.32833690221270517</v>
       </c>
       <c r="E20" s="3">
-        <v>0.46975924838520261</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>0.57102069950035694</v>
+      </c>
+      <c r="F20" s="3">
+        <v>10.655473038424283</v>
+      </c>
       <c r="G20" s="3">
-        <v>0.14838709677419354</v>
+        <v>2.6837972876516774</v>
       </c>
       <c r="H20" s="3">
-        <v>0.14838709677419354</v>
+        <v>3.2548179871520344</v>
       </c>
       <c r="I20" s="3">
-        <v>3.1386019110568285E-2</v>
+        <v>0.30545973655181363</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1304,22 +1396,26 @@
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3">
+        <v>1.7844396859386153</v>
+      </c>
       <c r="D21" s="3">
-        <v>0.11301890893284069</v>
+        <v>0.37116345467523199</v>
       </c>
       <c r="E21" s="3">
-        <v>0.88079859072225475</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>1.0706638115631693</v>
+      </c>
+      <c r="F21" s="3">
+        <v>11.398127219890217</v>
+      </c>
       <c r="G21" s="3">
-        <v>0.1370967741935484</v>
+        <v>2.1556031406138474</v>
       </c>
       <c r="H21" s="3">
-        <v>0.1370967741935484</v>
+        <v>3.2262669521770166</v>
       </c>
       <c r="I21" s="3">
-        <v>2.3501950623034822E-2</v>
+        <v>0.28305237254652182</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1329,20 +1425,26 @@
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>1.3561741613133476</v>
+      </c>
       <c r="D22">
-        <v>8.6937622256031299E-2</v>
+        <v>0.28551034975017847</v>
       </c>
       <c r="E22">
-        <v>1.0569583088667056</v>
+        <v>1.2847965738758029</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.15483870967741933</v>
+        <v>1.6416845110635261</v>
       </c>
       <c r="H22">
-        <v>0.15483870967741933</v>
-      </c>
-      <c r="I22">
-        <v>0.27231541218637989</v>
+        <v>2.9264810849393292</v>
+      </c>
+      <c r="I22" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1352,20 +1454,26 @@
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>1.7844396859386153</v>
+      </c>
       <c r="D23">
-        <v>0.11736579004564227</v>
+        <v>0.38543897216274092</v>
       </c>
       <c r="E23">
-        <v>1.1743981209630063</v>
+        <v>1.4275517487508922</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.15483870967741936</v>
+        <v>2.1698786581013563</v>
       </c>
       <c r="H23">
-        <v>0.15483870967741936</v>
-      </c>
-      <c r="I23">
-        <v>0.27745343883140594</v>
+        <v>3.5974304068522485</v>
+      </c>
+      <c r="I23" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1375,20 +1483,26 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>2.3554603854389722</v>
+      </c>
       <c r="D24">
-        <v>0.10867202782003912</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="E24">
-        <v>0.23487962419260131</v>
+        <v>0.28551034975017847</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.15</v>
+        <v>2.7123483226266951</v>
       </c>
       <c r="H24">
-        <v>0.15</v>
-      </c>
-      <c r="I24">
-        <v>0.24144915254237287</v>
+        <v>2.9978586723768736</v>
+      </c>
+      <c r="I24" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1398,20 +1512,26 @@
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C25">
+        <v>1.4275517487508922</v>
+      </c>
       <c r="D25">
-        <v>0.13040643338404695</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="E25">
-        <v>2.3487962419260127</v>
+        <v>2.8551034975017844</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.14032258064516129</v>
+        <v>1.85581727337616</v>
       </c>
       <c r="H25">
-        <v>0.14032258064516129</v>
-      </c>
-      <c r="I25">
-        <v>0.20822555443548385</v>
+        <v>4.7109207708779444</v>
+      </c>
+      <c r="I25" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1421,22 +1541,26 @@
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3">
+        <v>1.4275517487508922</v>
+      </c>
       <c r="D26" s="3">
-        <v>0.13040643338404695</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="E26" s="3">
-        <v>1.9964768056371109</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>2.426837972876517</v>
+      </c>
+      <c r="F26" s="3">
+        <v>13.335485954149176</v>
+      </c>
       <c r="G26" s="3">
-        <v>0.25</v>
+        <v>1.85581727337616</v>
       </c>
       <c r="H26" s="3">
-        <v>0.25</v>
+        <v>4.282655246252677</v>
       </c>
       <c r="I26" s="3">
-        <v>5.4083143507972664E-2</v>
+        <v>0.32114729534248282</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1446,22 +1570,26 @@
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3">
+        <v>1.85581727337616</v>
+      </c>
       <c r="D27" s="3">
-        <v>0.13910019560965009</v>
+        <v>0.4568165596002855</v>
       </c>
       <c r="E27" s="3">
-        <v>3.3470346447445682</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>4.0685224839400433</v>
+      </c>
+      <c r="F27" s="3">
+        <v>13.496932515337424</v>
+      </c>
       <c r="G27" s="3">
-        <v>0.21129032258064515</v>
+        <v>2.3126338329764455</v>
       </c>
       <c r="H27" s="3">
-        <v>0.21129032258064515</v>
+        <v>6.3811563169164884</v>
       </c>
       <c r="I27" s="3">
-        <v>4.3812755317650373E-2</v>
+        <v>0.47278567257153981</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1471,22 +1599,26 @@
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3">
+        <v>2.78372591006424</v>
+      </c>
       <c r="D28" s="3">
-        <v>0.10215170615083678</v>
+        <v>0.33547466095645967</v>
       </c>
       <c r="E28" s="3">
-        <v>8.7492660011743979</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>10.635260528194147</v>
+      </c>
+      <c r="F28" s="3">
+        <v>14.497901194704554</v>
+      </c>
       <c r="G28" s="3">
-        <v>0.63709677419354849</v>
+        <v>3.1192005710206998</v>
       </c>
       <c r="H28" s="3">
-        <v>0.63709677419354849</v>
+        <v>13.754461099214847</v>
       </c>
       <c r="I28" s="3">
-        <v>0.14337696835346278</v>
+        <v>0.94872084686566549</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1496,22 +1628,26 @@
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3">
+        <v>1.3561741613133476</v>
+      </c>
       <c r="D29" s="3">
-        <v>0.10649858726363834</v>
+        <v>0.34975017844396861</v>
       </c>
       <c r="E29" s="3">
-        <v>9.7475044039929539</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>11.848679514632407</v>
+      </c>
+      <c r="F29" s="3">
+        <v>15.014530190506944</v>
+      </c>
       <c r="G29" s="3">
-        <v>0.14516129032258063</v>
+        <v>1.7059243397573161</v>
       </c>
       <c r="H29" s="3">
-        <v>0.14516129032258063</v>
+        <v>13.554603854389722</v>
       </c>
       <c r="I29" s="3">
-        <v>2.8840936698609796E-2</v>
+        <v>0.90276576638806372</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1661,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C1" sqref="C1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1570,19 +1706,23 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>0.85653104925053536</v>
+      </c>
       <c r="D2" s="3">
-        <v>0.10649858726363834</v>
+        <v>0.34975017844396861</v>
       </c>
       <c r="E2" s="3">
-        <v>21.667645331767467</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>26.338329764453963</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
       <c r="G2" s="3">
-        <v>0.15645161290322582</v>
+        <v>1.2062812276945039</v>
       </c>
       <c r="H2" s="3">
-        <v>1.9180487943477353</v>
+        <v>27.544610992148467</v>
       </c>
       <c r="I2" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1595,19 +1735,23 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>1.2134189864382585</v>
+      </c>
       <c r="D3" s="3">
-        <v>9.7804825038035212E-2</v>
+        <v>0.32119914346895073</v>
       </c>
       <c r="E3" s="3">
-        <v>21.491485613623016</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>26.124197002141326</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
       <c r="G3" s="3">
-        <v>0.14838709677419354</v>
+        <v>1.5346181299072092</v>
       </c>
       <c r="H3" s="3">
-        <v>4.3175004261928658</v>
+        <v>27.658815132048534</v>
       </c>
       <c r="I3" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1620,19 +1764,23 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>1.1420413990007139</v>
+      </c>
       <c r="D4" s="3">
-        <v>0.11301890893284069</v>
+        <v>0.37116345467523199</v>
       </c>
       <c r="E4" s="3">
-        <v>11.27422196124486</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>13.704496788008566</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
       <c r="G4" s="3">
-        <v>0.14677419354838711</v>
+        <v>1.5132048536759459</v>
       </c>
       <c r="H4" s="3">
-        <v>0.91013297217434119</v>
+        <v>15.217701641684512</v>
       </c>
       <c r="I4" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1645,19 +1793,23 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>1.5703069236259812</v>
+      </c>
       <c r="D5" s="3">
-        <v>0.10215170615083678</v>
+        <v>0.33547466095645967</v>
       </c>
       <c r="E5" s="3">
-        <v>12.272460364063415</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>14.917915774446824</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
       <c r="G5" s="3">
-        <v>0.15</v>
+        <v>1.9057815845824408</v>
       </c>
       <c r="H5" s="3">
-        <v>2.6162360540223135</v>
+        <v>16.823697359029264</v>
       </c>
       <c r="I5" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1670,17 +1822,23 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C6">
+        <v>1.9271948608137046</v>
+      </c>
       <c r="D6">
-        <v>9.563138448163444E-2</v>
+        <v>0.31406138472519635</v>
       </c>
       <c r="E6">
-        <v>52.143276570757486</v>
+        <v>63.383297644539624</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.23548387096774195</v>
+        <v>2.2412562455389011</v>
       </c>
       <c r="H6">
-        <v>0.52908340120849351</v>
+        <v>65.624553890078531</v>
       </c>
       <c r="I6" t="e">
         <v>#DIV/0!</v>
@@ -1693,17 +1851,23 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C7">
+        <v>1.85581727337616</v>
+      </c>
       <c r="D7">
-        <v>8.6937622256031299E-2</v>
+        <v>0.28551034975017847</v>
       </c>
       <c r="E7">
-        <v>52.554315913094534</v>
+        <v>63.88294075660243</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.27903225806451615</v>
+        <v>2.1413276231263385</v>
       </c>
       <c r="H7">
-        <v>1.8644697213645747</v>
+        <v>66.024268379728767</v>
       </c>
       <c r="I7" t="e">
         <v>#DIV/0!</v>
@@ -1716,17 +1880,23 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>2.0699500356887941</v>
+      </c>
       <c r="D8">
-        <v>7.3896978917626602E-2</v>
+        <v>0.24268379728765166</v>
       </c>
       <c r="E8">
-        <v>48.091603053435108</v>
+        <v>58.458244111349032</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.18225806451612905</v>
+        <v>2.312633832976446</v>
       </c>
       <c r="H8">
-        <v>0.35841778266058</v>
+        <v>60.770877944325477</v>
       </c>
       <c r="I8" t="e">
         <v>#DIV/0!</v>
@@ -1739,17 +1909,23 @@
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C9">
+        <v>1.5703069236259812</v>
+      </c>
       <c r="D9">
-        <v>9.9978265594435997E-2</v>
+        <v>0.32833690221270517</v>
       </c>
       <c r="E9">
-        <v>49.618320610687014</v>
+        <v>60.3140613847252</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.15</v>
+        <v>1.8986438258386864</v>
       </c>
       <c r="H9">
-        <v>1.8528772753963592</v>
+        <v>62.21270521056389</v>
       </c>
       <c r="I9" t="e">
         <v>#DIV/0!</v>
@@ -1762,19 +1938,23 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <v>1.6416845110635259</v>
+      </c>
       <c r="D10" s="3">
-        <v>9.3457943925233655E-2</v>
+        <v>0.30692362598144185</v>
       </c>
       <c r="E10" s="3">
-        <v>54.903112155020551</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>66.738044254104224</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
       <c r="G10" s="3">
-        <v>1.8048387096774192</v>
+        <v>1.9486081370449677</v>
       </c>
       <c r="H10" s="3">
-        <v>4.7995539181330855</v>
+        <v>68.686652391149195</v>
       </c>
       <c r="I10" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1787,19 +1967,23 @@
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <v>1.7844396859386153</v>
+      </c>
       <c r="D11" s="3">
-        <v>0.11736579004564227</v>
+        <v>0.38543897216274092</v>
       </c>
       <c r="E11" s="3">
-        <v>57.369348209042862</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>69.735902926481089</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
       <c r="G11" s="3">
-        <v>1.8580645161290323</v>
+        <v>2.1698786581013563</v>
       </c>
       <c r="H11" s="3">
-        <v>4.2068607580550452</v>
+        <v>71.905781584582442</v>
       </c>
       <c r="I11" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1812,19 +1996,23 @@
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3">
+        <v>1.4275517487508922</v>
+      </c>
       <c r="D12" s="3">
-        <v>9.7804825038035212E-2</v>
+        <v>0.32119914346895073</v>
       </c>
       <c r="E12" s="3">
-        <v>47.152084556664711</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>57.316202712348328</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
       <c r="G12" s="3">
-        <v>1.7854838709677421</v>
+        <v>1.7487508922198429</v>
       </c>
       <c r="H12" s="3">
-        <v>1.7854838709677421</v>
+        <v>59.064953604568174</v>
       </c>
       <c r="I12" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1837,19 +2025,23 @@
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3">
+        <v>1.7130620985010707</v>
+      </c>
       <c r="D13" s="3">
-        <v>9.563138448163444E-2</v>
+        <v>0.31406138472519635</v>
       </c>
       <c r="E13" s="3">
-        <v>46.271285965942454</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>56.245538900785156</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
       <c r="G13" s="3">
-        <v>1.9209677419354838</v>
+        <v>2.027123483226267</v>
       </c>
       <c r="H13" s="3">
-        <v>3.8000047354762945</v>
+        <v>58.272662384011426</v>
       </c>
       <c r="I13" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1862,20 +2054,26 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C14">
+        <v>1.7844396859386153</v>
+      </c>
       <c r="D14">
-        <v>9.3457943925233655E-2</v>
+        <v>0.30692362598144185</v>
       </c>
       <c r="E14">
-        <v>60.364063417498528</v>
+        <v>73.376159885795857</v>
+      </c>
+      <c r="F14">
+        <v>1.4207297384565707</v>
       </c>
       <c r="G14">
-        <v>0.1435483870967742</v>
+        <v>2.0913633119200572</v>
       </c>
       <c r="H14">
-        <v>0.1435483870967742</v>
+        <v>75.46752319771592</v>
       </c>
       <c r="I14">
-        <v>0.16625354051927616</v>
+        <v>53.11884530530142</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1885,20 +2083,26 @@
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C15">
+        <v>2.426837972876517</v>
+      </c>
       <c r="D15">
-        <v>7.6070419474027401E-2</v>
+        <v>0.24982155603140616</v>
       </c>
       <c r="E15">
-        <v>60.011743981209626</v>
+        <v>72.947894361170597</v>
+      </c>
+      <c r="F15">
+        <v>1.4853083629318695</v>
       </c>
       <c r="G15">
-        <v>0.25806451612903225</v>
+        <v>2.6766595289079231</v>
       </c>
       <c r="H15">
-        <v>4.3684579394995549</v>
+        <v>75.624553890078516</v>
       </c>
       <c r="I15">
-        <v>5.8432739509052505</v>
+        <v>50.915052912515904</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1908,20 +2112,26 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C16">
+        <v>1.2847965738758029</v>
+      </c>
       <c r="D16">
-        <v>8.9111062812432085E-2</v>
+        <v>0.29264810849393291</v>
       </c>
       <c r="E16">
-        <v>50.792718731650027</v>
+        <v>61.741613133476093</v>
+      </c>
+      <c r="F16">
+        <v>1.1624152405553763</v>
       </c>
       <c r="G16">
-        <v>0.27419354838709681</v>
+        <v>1.5774446823697359</v>
       </c>
       <c r="H16">
-        <v>1.800911105639005</v>
+        <v>63.319057815845831</v>
       </c>
       <c r="I16">
-        <v>2.0857625329577596</v>
+        <v>54.47197834879848</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1931,20 +2141,26 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C17">
+        <v>0.92790863668807999</v>
+      </c>
       <c r="D17">
-        <v>9.563138448163444E-2</v>
+        <v>0.31406138472519635</v>
       </c>
       <c r="E17">
-        <v>46.682325308279502</v>
+        <v>56.74518201284797</v>
+      </c>
+      <c r="F17">
+        <v>1.0655473038424281</v>
       </c>
       <c r="G17">
-        <v>0.25483870967741939</v>
+        <v>1.2419700214132763</v>
       </c>
       <c r="H17">
-        <v>0.25483870967741939</v>
+        <v>57.987152034261243</v>
       </c>
       <c r="I17">
-        <v>0.36122436206066444</v>
+        <v>54.420063590941538</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1954,22 +2170,26 @@
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3">
+        <v>1.85581727337616</v>
+      </c>
       <c r="D18" s="3">
-        <v>0.11736579004564227</v>
+        <v>0.38543897216274092</v>
       </c>
       <c r="E18" s="3">
-        <v>26.189078097475043</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>31.8344039971449</v>
+      </c>
+      <c r="F18" s="3">
+        <v>13.109460768485633</v>
+      </c>
       <c r="G18" s="3">
-        <v>1.0016129032258065</v>
+        <v>2.2412562455389011</v>
       </c>
       <c r="H18" s="3">
-        <v>1.0016129032258065</v>
+        <v>34.075660242683803</v>
       </c>
       <c r="I18" s="3">
-        <v>0.18761967932811605</v>
+        <v>2.5993182209751655</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1979,22 +2199,26 @@
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3">
+        <v>1.85581727337616</v>
+      </c>
       <c r="D19" s="3">
-        <v>0.10432514670723754</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="E19" s="3">
-        <v>26.423957721667644</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>32.119914346895072</v>
+      </c>
+      <c r="F19" s="3">
+        <v>13.819825637713917</v>
+      </c>
       <c r="G19" s="3">
-        <v>0.14032258064516129</v>
+        <v>2.198429693076374</v>
       </c>
       <c r="H19" s="3">
-        <v>0.14032258064516129</v>
+        <v>34.31834403997145</v>
       </c>
       <c r="I19" s="3">
-        <v>2.8114842792976723E-2</v>
+        <v>2.4832689600885884</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2004,22 +2228,26 @@
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3">
+        <v>2.3554603854389722</v>
+      </c>
       <c r="D20" s="3">
-        <v>9.9978265594435997E-2</v>
+        <v>0.32833690221270517</v>
       </c>
       <c r="E20" s="3">
-        <v>11.039342337052259</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>13.418986438258386</v>
+      </c>
+      <c r="F20" s="3">
+        <v>10.655473038424283</v>
+      </c>
       <c r="G20" s="3">
-        <v>0.14838709677419354</v>
+        <v>2.6837972876516774</v>
       </c>
       <c r="H20" s="3">
-        <v>0.14838709677419354</v>
+        <v>16.102783725910065</v>
       </c>
       <c r="I20" s="3">
-        <v>3.1386019110568285E-2</v>
+        <v>1.5112218545194989</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2029,22 +2257,26 @@
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3">
+        <v>1.7844396859386153</v>
+      </c>
       <c r="D21" s="3">
-        <v>0.11301890893284069</v>
+        <v>0.37116345467523199</v>
       </c>
       <c r="E21" s="3">
-        <v>11.509101585437463</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>13.990007137758743</v>
+      </c>
+      <c r="F21" s="3">
+        <v>11.398127219890217</v>
+      </c>
       <c r="G21" s="3">
-        <v>0.1370967741935484</v>
+        <v>2.1556031406138474</v>
       </c>
       <c r="H21" s="3">
-        <v>0.1370967741935484</v>
+        <v>16.14561027837259</v>
       </c>
       <c r="I21" s="3">
-        <v>2.3501950623034822E-2</v>
+        <v>1.416514306858921</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2054,20 +2286,26 @@
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>1.3561741613133476</v>
+      </c>
       <c r="D22">
-        <v>8.6937622256031299E-2</v>
+        <v>0.28551034975017847</v>
       </c>
       <c r="E22">
-        <v>20.72812683499706</v>
+        <v>25.196288365453249</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.15483870967741933</v>
+        <v>1.6416845110635261</v>
       </c>
       <c r="H22">
-        <v>0.15483870967741933</v>
-      </c>
-      <c r="I22">
-        <v>0.27231541218637989</v>
+        <v>26.837972876516776</v>
+      </c>
+      <c r="I22" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2077,20 +2315,26 @@
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>1.7844396859386153</v>
+      </c>
       <c r="D23">
-        <v>0.11736579004564227</v>
+        <v>0.38543897216274092</v>
       </c>
       <c r="E23">
-        <v>20.963006459189661</v>
+        <v>25.481798715203425</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.15483870967741936</v>
+        <v>2.1698786581013563</v>
       </c>
       <c r="H23">
-        <v>0.15483870967741936</v>
-      </c>
-      <c r="I23">
-        <v>0.27745343883140594</v>
+        <v>27.651677373304782</v>
+      </c>
+      <c r="I23" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2100,20 +2344,26 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>2.3554603854389722</v>
+      </c>
       <c r="D24">
-        <v>0.10867202782003912</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="E24">
-        <v>7.6923076923076916</v>
+        <v>9.3504639543183448</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.15</v>
+        <v>2.7123483226266951</v>
       </c>
       <c r="H24">
-        <v>0.15</v>
-      </c>
-      <c r="I24">
-        <v>0.24144915254237287</v>
+        <v>12.06281227694504</v>
+      </c>
+      <c r="I24" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2123,20 +2373,26 @@
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C25">
+        <v>1.4275517487508922</v>
+      </c>
       <c r="D25">
-        <v>0.13040643338404695</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="E25">
-        <v>7.6923076923076916</v>
+        <v>9.3504639543183448</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.14032258064516129</v>
+        <v>1.85581727337616</v>
       </c>
       <c r="H25">
-        <v>0.14032258064516129</v>
-      </c>
-      <c r="I25">
-        <v>0.20822555443548385</v>
+        <v>11.206281227694504</v>
+      </c>
+      <c r="I25" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2146,22 +2402,26 @@
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3">
+        <v>1.4275517487508922</v>
+      </c>
       <c r="D26" s="3">
-        <v>0.13040643338404695</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="E26" s="3">
-        <v>5.8719906048150321</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>7.1377587437544614</v>
+      </c>
+      <c r="F26" s="3">
+        <v>13.335485954149176</v>
+      </c>
       <c r="G26" s="3">
-        <v>0.25</v>
+        <v>1.85581727337616</v>
       </c>
       <c r="H26" s="3">
-        <v>0.25</v>
+        <v>8.9935760171306214</v>
       </c>
       <c r="I26" s="3">
-        <v>5.4083143507972664E-2</v>
+        <v>0.67440932021921396</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2171,22 +2431,26 @@
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3">
+        <v>1.85581727337616</v>
+      </c>
       <c r="D27" s="3">
-        <v>0.13910019560965009</v>
+        <v>0.4568165596002855</v>
       </c>
       <c r="E27" s="3">
-        <v>5.1673517322372282</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>6.2812276945039249</v>
+      </c>
+      <c r="F27" s="3">
+        <v>13.496932515337424</v>
+      </c>
       <c r="G27" s="3">
-        <v>0.21129032258064515</v>
+        <v>2.3126338329764455</v>
       </c>
       <c r="H27" s="3">
-        <v>0.21129032258064515</v>
+        <v>8.5938615274803709</v>
       </c>
       <c r="I27" s="3">
-        <v>4.3812755317650373E-2</v>
+        <v>0.63672701317240932</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2196,22 +2460,26 @@
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3">
+        <v>2.78372591006424</v>
+      </c>
       <c r="D28" s="3">
-        <v>0.10215170615083678</v>
+        <v>0.33547466095645967</v>
       </c>
       <c r="E28" s="3">
-        <v>5.4609512624779795</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>6.6381156316916483</v>
+      </c>
+      <c r="F28" s="3">
+        <v>14.497901194704554</v>
+      </c>
       <c r="G28" s="3">
-        <v>0.63709677419354849</v>
+        <v>3.1192005710206998</v>
       </c>
       <c r="H28" s="3">
-        <v>0.63709677419354849</v>
+        <v>9.7573162027123477</v>
       </c>
       <c r="I28" s="3">
-        <v>0.14337696835346278</v>
+        <v>0.67301577460579376</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -2221,22 +2489,26 @@
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3">
+        <v>1.3561741613133476</v>
+      </c>
       <c r="D29" s="3">
-        <v>0.10649858726363834</v>
+        <v>0.34975017844396861</v>
       </c>
       <c r="E29" s="3">
-        <v>5.0499119201409268</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>6.1384725196288361</v>
+      </c>
+      <c r="F29" s="3">
+        <v>15.014530190506944</v>
+      </c>
       <c r="G29" s="3">
-        <v>0.14516129032258063</v>
+        <v>1.7059243397573161</v>
       </c>
       <c r="H29" s="3">
-        <v>0.14516129032258063</v>
+        <v>7.8443968593861522</v>
       </c>
       <c r="I29" s="3">
-        <v>2.8840936698609796E-2</v>
+        <v>0.52245370050578299</v>
       </c>
     </row>
   </sheetData>
